--- a/sheets/qtr_5/q3-q4 demand.xlsx
+++ b/sheets/qtr_5/q3-q4 demand.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyote\Documents\Cresicor\Project\capstone\python-analysis\sheets\qtr_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B63D525-1E33-454E-8594-9AD4E8084CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CFC19D-A2A3-41C3-A16B-19C758DEC71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{EA2B4B7E-B00D-4252-A20D-F54F799E8BB1}"/>
   </bookViews>
   <sheets>
     <sheet name="qtr-4" sheetId="9" r:id="rId1"/>
     <sheet name="qtr-3" sheetId="10" r:id="rId2"/>
     <sheet name="brand-entrance" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="TitleRegion1.A2.G14.8">#REF!</definedName>
@@ -28,14 +30,14 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="83">
   <si>
     <t>Brand</t>
   </si>
@@ -267,12 +269,30 @@
   <si>
     <t xml:space="preserve">We should probably enter EUROPE-mountain </t>
   </si>
+  <si>
+    <t>APAC demand qtr 4</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>NORAM demand atr4</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>total sales people</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -295,6 +315,19 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -447,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -507,6 +540,30 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9482,6 +9539,342 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C1A24E6-7459-452D-917E-27CC7FD744F1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:U12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="3"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="20">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i r="1" i="4">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i r="1" i="4">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i r="1" i="3">
+      <x v="3"/>
+    </i>
+    <i r="1" i="4">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+    <i t="grand" i="2">
+      <x/>
+    </i>
+    <i t="grand" i="3">
+      <x/>
+    </i>
+    <i t="grand" i="4">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Sum of Mountain" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Youth" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Work" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Recreation" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Speed" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="16">
+    <chartFormat chart="0" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{306BDB31-BE13-4D75-853F-D759E7F0A457}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A42:P49" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="9">
@@ -10023,342 +10416,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C1A24E6-7459-452D-917E-27CC7FD744F1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:U12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-    <pivotField dataField="1" numFmtId="3" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="3"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="20">
-    <i>
-      <x/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-    <i r="1" i="4">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-    <i r="1" i="4">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
-    </i>
-    <i r="1" i="3">
-      <x v="3"/>
-    </i>
-    <i r="1" i="4">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-    <i t="grand" i="1">
-      <x/>
-    </i>
-    <i t="grand" i="2">
-      <x/>
-    </i>
-    <i t="grand" i="3">
-      <x/>
-    </i>
-    <i t="grand" i="4">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Sum of Mountain" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Youth" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Work" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Recreation" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Speed" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="16">
-    <chartFormat chart="0" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="20" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="23" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="25" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="28" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="29" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="30" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="31" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="33" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -10651,6 +10708,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13833,8 +13891,9 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I48"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -15239,9 +15298,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5764FD0-AEC6-41DE-B4D3-B68F3BFF571C}">
   <dimension ref="A3:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16072,4 +16132,434 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD26BE48-7B21-40CE-8C2F-F3FB02B8EC1E}">
+  <dimension ref="E5:M34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="G5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>1.33</v>
+      </c>
+      <c r="I8" s="25">
+        <v>1.78</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="E9" s="20"/>
+      <c r="F9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>1.89</v>
+      </c>
+      <c r="I9" s="25">
+        <v>1.89</v>
+      </c>
+      <c r="J9" s="25">
+        <v>2.31</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>269</v>
+      </c>
+      <c r="I14">
+        <v>58</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="26">
+        <f>G8+(0.1/4)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H15" s="26">
+        <f t="shared" ref="H15:K15" si="0">H8+(0.1/4)</f>
+        <v>1.355</v>
+      </c>
+      <c r="I15" s="26">
+        <f t="shared" si="0"/>
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="J15" s="26">
+        <f t="shared" si="0"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="K15" s="26">
+        <f t="shared" si="0"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="27">
+        <f>G14*G15</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
+        <f t="shared" ref="H16:K16" si="1">H14*H15</f>
+        <v>364.495</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>104.69</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>38.25</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>SUM(G16:K16)</f>
+        <v>507.435</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F17" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27">
+        <f>H16/30</f>
+        <v>12.149833333333333</v>
+      </c>
+      <c r="I17" s="27">
+        <f t="shared" ref="I17:J17" si="2">I16/30</f>
+        <v>3.4896666666666665</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="2"/>
+        <v>1.2749999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>106</v>
+      </c>
+      <c r="I20">
+        <v>47</v>
+      </c>
+      <c r="J20">
+        <v>24</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="26">
+        <f>G9+(0.25/4)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H21" s="26">
+        <f>H9+(0.25/4)</f>
+        <v>1.9524999999999999</v>
+      </c>
+      <c r="I21" s="26">
+        <f>I9+(0.25/4)</f>
+        <v>1.9524999999999999</v>
+      </c>
+      <c r="J21" s="26">
+        <f>J9+(0.25/4)</f>
+        <v>2.3725000000000001</v>
+      </c>
+      <c r="K21" s="26">
+        <f>K9+(0.25/4)</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22">
+        <f>G21*(G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:K22" si="3">H21*(H20)</f>
+        <v>206.965</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>91.767499999999998</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>56.94</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>SUM(G22:K22)</f>
+        <v>355.67250000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23">
+        <f>G22/30</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23:K23" si="4">H22/30</f>
+        <v>6.8988333333333332</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>3.0589166666666667</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>1.8979999999999999</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F27" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="22">
+        <v>1</v>
+      </c>
+      <c r="H27" s="22">
+        <v>79</v>
+      </c>
+      <c r="I27" s="22">
+        <v>118</v>
+      </c>
+      <c r="J27" s="22">
+        <v>1</v>
+      </c>
+      <c r="K27" s="22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28">
+        <f>G27*G9</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:K28" si="5">H27*H9</f>
+        <v>149.31</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>223.01999999999998</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="5"/>
+        <v>2.31</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>SUM(G28:K28)</f>
+        <v>374.64</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29">
+        <f>G28/30</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:K29" si="6">H28/30</f>
+        <v>4.9770000000000003</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>7.4339999999999993</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F30" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f>SUM(G28,G22,G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32:K32" si="7">SUM(H28,H22,H16)</f>
+        <v>720.77</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>419.47749999999996</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="7"/>
+        <v>97.5</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34">
+        <f>SUM(G32:K32)</f>
+        <v>1237.7474999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E8:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>